--- a/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4245,13 +4245,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>445333</v>
+        <v>445334</v>
       </c>
       <c r="D125">
         <v>102861</v>
       </c>
       <c r="E125">
-        <v>1770870050</v>
+        <v>1770872225</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
@@ -6159,13 +6159,13 @@
         <v>10</v>
       </c>
       <c r="C191">
-        <v>474029</v>
+        <v>474030</v>
       </c>
       <c r="D191">
         <v>125595</v>
       </c>
       <c r="E191">
-        <v>745879882</v>
+        <v>745882050</v>
       </c>
       <c r="F191" t="s">
         <v>26</v>
